--- a/AnalizPdvBundle/Resources/templateAnaliz/AnalizPDV_In_INN.xlsx
+++ b/AnalizPdvBundle/Resources/templateAnaliz/AnalizPDV_In_INN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer525\domains\AnalizPDV\web\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer525\domains\AnalizPDV\src\AnalizPdvBundle\Resources\templateAnaliz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4650" windowWidth="19200" windowHeight="10215" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="5580" windowWidth="19200" windowHeight="10215" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="read me" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>месяц</t>
   </si>
@@ -91,9 +91,6 @@
     <t>по данным Реесстра</t>
   </si>
   <si>
-    <t>Проверка налоговых обязательств в разрезе ИНН. Суммы ПДВ по ИПН которые есть в  Реестре но нет в ЕРПН</t>
-  </si>
-  <si>
     <t xml:space="preserve">Описание данных указанных в вкладках и расшифровка их содержимого </t>
   </si>
   <si>
@@ -107,24 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">Как анализируем </t>
-  </si>
-  <si>
-    <t>Правильность  и полноту формирования ПДВ по налоговым обязательствам в разрезе ИНН .</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Проверка налоговых обязательств в разрезе ИНН. Суммы ПДВ по ИПН которые есть в ЕРПН но нет в  Реестре </t>
-  </si>
-  <si>
-    <t>Если по филиалу есть не нулевые суммы по столбцу "Сальдо ПДВ (ЕРПН-Реестр)", следовательно предприятие ошиблось в формировании налоговых обязательств. Для виявления НН по которым есть ошибки надо открыть данные ЕРПН отфильтровать документы по столбцу "ИНН клиента", периоду создания и номеру филиала</t>
-  </si>
-  <si>
-    <t>Если по филиалу есть не нулевые суммы по столбцу "Сальдо ПДВ (ЕРПН-Реестр)", следовательно предприятие ошиблось в формировании налоговых обязательств. Для виявления НН по которым есть ошибки надо открыть файл анализа Реестров "AnalizPDV_All month (номер месяца) year (номер года) numBranch (номер филиала)" в вкладке "Out_reestr&lt;&gt;edrpou" отфильтровать документы по столбцу "ИНН клиента".</t>
-  </si>
-  <si>
-    <t>Out_reestr&lt;&gt;erpn</t>
-  </si>
-  <si>
-    <t>Out_erpn&lt;&gt;reestr</t>
   </si>
   <si>
     <t xml:space="preserve">Что делать если что то отображается не верно </t>
@@ -157,9 +136,6 @@
     <t>In_R=E</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка налоговому кредиту в разрезе ИНН. Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре </t>
-  </si>
-  <si>
     <t>Правильность  и полноту формирования ПДВ по налоговому кредиту в разрезе ИНН .</t>
   </si>
   <si>
@@ -218,13 +194,70 @@
   </si>
   <si>
     <t xml:space="preserve">Проверка налогового кредита в разрезе ИНН. Суммы ПДВ по ИПН которые есть в  Реестре но нет в ЕРПН. Документы с реестров по которым есть расхождения </t>
+  </si>
+  <si>
+    <t>In_R=E DocByE</t>
+  </si>
+  <si>
+    <t>In_R&lt;&gt;E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре. Документы с реестров по которым есть расхождения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре. Документы с ЕРПН по которым есть расхождения </t>
+  </si>
+  <si>
+    <t>Суммы ПДВ по ИПН которые есть в  Реестре но нет в ЕРПН</t>
+  </si>
+  <si>
+    <t>In_R&lt;&gt;E DocByR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммы ПДВ по ИПН которые есть в  Реестре но нет в ЕРПН. Документы с реестров по которым есть расхождения </t>
+  </si>
+  <si>
+    <t>In_E&lt;&gt;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Суммы ПДВ по ИПН которые есть в ЕРПН но нет в  Реестре </t>
+  </si>
+  <si>
+    <t>In_E&lt;&gt;R DocByE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммы ПДВ по ИПН которые есть в ЕРПН но нет в  Реестре. Документы с ЕРПН по которым есть расхождения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">При помощи фильтра по столбцу "ИНН клиента" отбираем список документов по которым в вкладке "In_R=E" появлось расхождение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поиск документов по которым произошло расхождение в Реестре филиалов </t>
+  </si>
+  <si>
+    <t>Поиск документов по которым произошло расхождение в ЕРПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При помощи фильтра по столбцу "ИНН клиента" отбираем список документов по которым в вкладке "In_R&lt;&gt;E" появлось расхождение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">При помощи фильтра по столбцу "ИНН клиента" отбираем список документов по которым в вкладке "In_E&lt;&gt;R" появлось расхождение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Документы, которые ошибочно включены в Реестры </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Документы, по которым налоговый кредит не создан в отчетном месяце будет создан в течении 365 дней. Так называемое не использованое право на налоговый кредит </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +303,24 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -445,36 +496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -494,6 +515,36 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,11 +827,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,149 +842,191 @@
     <col min="4" max="4" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-    </row>
-    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="B6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.35" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -961,38 +1054,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="A1" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="33" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="38" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1000,12 +1093,12 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="G3" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1030,56 +1123,56 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="26" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="A1" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1191,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1199,7 @@
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="26" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.140625" customWidth="1"/>
@@ -1114,39 +1207,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="A1" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1164,32 +1257,32 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32" style="36" customWidth="1"/>
+    <col min="3" max="3" width="32" style="26" customWidth="1"/>
     <col min="4" max="4" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="A1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1197,9 +1290,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1222,57 +1315,57 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="26" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="A1" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1289,32 +1382,32 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="26" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1322,9 +1415,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1346,8 +1439,8 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1448,7 @@
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="26" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.140625" customWidth="1"/>
@@ -1363,39 +1456,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="A1" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
